--- a/asset/admin/temp/file-import.xlsx
+++ b/asset/admin/temp/file-import.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lufri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-pus\asset\admin\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA5A7B6-DF51-4724-AFBD-45946FD7D16D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>nisn</t>
   </si>
@@ -111,12 +112,69 @@
   </si>
   <si>
     <t>nama</t>
+  </si>
+  <si>
+    <t>KURNIAWAN DWI</t>
+  </si>
+  <si>
+    <t>AISYAH SARWATI</t>
+  </si>
+  <si>
+    <t>CHRISTIAN SUDJONO</t>
+  </si>
+  <si>
+    <t>MAMAN SUHERMAN</t>
+  </si>
+  <si>
+    <t>KUKUH ABDI</t>
+  </si>
+  <si>
+    <t>RERE SARIWATI</t>
+  </si>
+  <si>
+    <t>ANGGA ARJANA</t>
+  </si>
+  <si>
+    <t>MANCA</t>
+  </si>
+  <si>
+    <t>KURJASI</t>
+  </si>
+  <si>
+    <t>LEMBAYUNG HASTA</t>
+  </si>
+  <si>
+    <t>DODOL BA'SA</t>
+  </si>
+  <si>
+    <t>CORSA ADREA</t>
+  </si>
+  <si>
+    <t>SUKANTI</t>
+  </si>
+  <si>
+    <t>SEBASTIAN HARTA</t>
+  </si>
+  <si>
+    <t>AAN KEUN</t>
+  </si>
+  <si>
+    <t>KLEMBANG</t>
+  </si>
+  <si>
+    <t>CHORO BITS</t>
+  </si>
+  <si>
+    <t>SALSABILA</t>
+  </si>
+  <si>
+    <t>KWENTIAW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,22 +486,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -471,12 +529,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -485,12 +543,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -499,12 +557,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -513,12 +571,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -527,12 +585,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -541,12 +599,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -555,12 +613,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -569,12 +627,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -583,12 +641,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -597,12 +655,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -611,12 +669,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -625,12 +683,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -639,12 +697,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -653,12 +711,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -667,12 +725,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -681,12 +739,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -695,12 +753,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -709,12 +767,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -723,12 +781,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
